--- a/public/file_siswa/1199217683Book1.xlsx
+++ b/public/file_siswa/1199217683Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikra8\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PKM_Alfitrah\main\SiakadAlfitrah\public\file_siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28B1E84-BBAD-4DE4-A0F4-47AB7737C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2990E8-FC96-4A36-8297-5ED126A5F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{AED5BEF3-0073-41B9-88D0-36288A128E0D}"/>
+    <workbookView xWindow="3050" yWindow="1760" windowWidth="14440" windowHeight="7300" xr2:uid="{AED5BEF3-0073-41B9-88D0-36288A128E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,25 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ikram</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>L</t>
   </si>
   <si>
     <t>Kelas A</t>
   </si>
+  <si>
+    <t>john12345</t>
+  </si>
+  <si>
+    <t>Tegar</t>
+  </si>
+  <si>
+    <t>ewe1232131m@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,29 +411,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA27B4-C6ED-4E4E-94D3-A7EE6A39B0A1}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2015555</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{6DDD6B58-ED85-4BEA-9679-04AAB68F3DC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>